--- a/Master-DATA-SET.xlsx
+++ b/Master-DATA-SET.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29FCF3E-EF30-4112-9544-3AB4D6EB3229}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A7FB72-A11B-4B93-ADF6-7144A570C53C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CHINA" sheetId="1" r:id="rId1"/>
+    <sheet name="All Contries" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -364,7 +364,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
